--- a/medicine/Psychotrope/Penderyn/Penderyn.xlsx
+++ b/medicine/Psychotrope/Penderyn/Penderyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Penderyn est une distillerie située à Penderyn au Pays de Galles.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Whisky Penderyn est un single malt du Pays de Galles. Il est fabriqué par la Distillerie Penderyn, dans la ville du même nom, située à proximité du Parc National du Brecon Beacons. C'était le premier whisky à être fabriqué au Pays de Galles depuis un siècle[1] quand les ventes ont commencé en 2004.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Whisky Penderyn est un single malt du Pays de Galles. Il est fabriqué par la Distillerie Penderyn, dans la ville du même nom, située à proximité du Parc National du Brecon Beacons. C'était le premier whisky à être fabriqué au Pays de Galles depuis un siècle quand les ventes ont commencé en 2004.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La distillerie produit des single malts principalement vieillis dans des fûts ayant contenu du bourbon et déclinés selon les expressions suivantes :
 Penderyn Madeira, avec un vieillissement en fûts de Madère,
